--- a/2021-3-17 F0NW0322/文件/短路群.xlsx
+++ b/2021-3-17 F0NW0322/文件/短路群.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\陈亮庚\项目\2021\2021-3-17 F0NW0322\文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\陈亮庚\项目\2021 - 副本\2021-3-17 F0NW0322\文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6352A95F-90FD-4F1B-BA86-B735B0344E25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85E957A-B4F2-4C2E-AE86-546A2F926612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11145" yWindow="0" windowWidth="14400" windowHeight="15750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="237">
   <si>
     <t>J6115</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2410,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD90034-5FF4-4A95-BCAF-A98CD50651A7}">
-  <dimension ref="E4:H154"/>
+  <dimension ref="E4:H155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -2434,12 +2434,9 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5">
-        <v>52</v>
-      </c>
       <c r="H5">
         <f>G5+64</f>
-        <v>116</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -3506,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <f t="shared" ref="H101:H111" si="1">G101</f>
+        <f t="shared" ref="H101:H112" si="1">G101</f>
         <v>1</v>
       </c>
     </row>
@@ -3626,29 +3623,28 @@
         <v>52</v>
       </c>
       <c r="H111">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E112" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F112">
-        <f>SUBTOTAL(3,F91:F111)</f>
-        <v>21</v>
+      <c r="F112" t="s">
+        <v>43</v>
+      </c>
+      <c r="G112">
+        <v>52</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
     </row>
     <row r="113" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113">
-        <v>4</v>
-      </c>
-      <c r="H113">
-        <f>G113+64</f>
-        <v>68</v>
+      <c r="F113">
+        <f>SUBTOTAL(3,F91:F112)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -3659,29 +3655,29 @@
         <v>4</v>
       </c>
       <c r="H114">
-        <f>G114</f>
-        <v>4</v>
+        <f>G114+64</f>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E115" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F115">
-        <f>SUBTOTAL(3,F113:F114)</f>
+      <c r="F115" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115">
+        <v>4</v>
+      </c>
+      <c r="H115">
+        <f>G115</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="F116">
+        <f>SUBTOTAL(3,F114:F115)</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116">
-        <v>2</v>
-      </c>
-      <c r="H116">
-        <f>G116+64</f>
-        <v>66</v>
       </c>
     </row>
     <row r="117" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -3692,62 +3688,62 @@
         <v>2</v>
       </c>
       <c r="H117">
-        <f>G117</f>
-        <v>2</v>
+        <f>G117+64</f>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E118" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F118">
-        <f>SUBTOTAL(3,F116:F117)</f>
+      <c r="F118" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118">
         <v>2</v>
       </c>
+      <c r="H118">
+        <f>G118</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="119" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119">
-        <v>6</v>
-      </c>
-      <c r="H119">
-        <f>G119+64</f>
-        <v>70</v>
+      <c r="F119">
+        <f>SUBTOTAL(3,F117:F118)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="F120" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G120">
         <v>6</v>
       </c>
       <c r="H120">
-        <f>G120</f>
-        <v>6</v>
+        <f>G120+64</f>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E121" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F121">
-        <f>SUBTOTAL(3,F119:F120)</f>
+      <c r="F121" t="s">
+        <v>46</v>
+      </c>
+      <c r="G121">
+        <v>6</v>
+      </c>
+      <c r="H121">
+        <f>G121</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="F122">
+        <f>SUBTOTAL(3,F120:F121)</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="F122" t="s">
-        <v>40</v>
-      </c>
-      <c r="G122">
-        <v>48</v>
-      </c>
-      <c r="H122">
-        <f>G122+64</f>
-        <v>112</v>
       </c>
     </row>
     <row r="123" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -3758,29 +3754,29 @@
         <v>48</v>
       </c>
       <c r="H123">
-        <f>G123</f>
-        <v>48</v>
+        <f>G123+64</f>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E124" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F124">
-        <f>SUBTOTAL(3,F122:F123)</f>
+      <c r="F124" t="s">
+        <v>40</v>
+      </c>
+      <c r="G124">
+        <v>48</v>
+      </c>
+      <c r="H124">
+        <f>G124</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="F125">
+        <f>SUBTOTAL(3,F123:F124)</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="F125" t="s">
-        <v>41</v>
-      </c>
-      <c r="G125">
-        <v>50</v>
-      </c>
-      <c r="H125">
-        <f>G125+64</f>
-        <v>114</v>
       </c>
     </row>
     <row r="126" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -3791,29 +3787,29 @@
         <v>50</v>
       </c>
       <c r="H126">
-        <f>G126</f>
-        <v>50</v>
+        <f>G126+64</f>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E127" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F127">
-        <f>SUBTOTAL(3,F125:F126)</f>
+      <c r="F127" t="s">
+        <v>41</v>
+      </c>
+      <c r="G127">
+        <v>50</v>
+      </c>
+      <c r="H127">
+        <f>G127</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="F128">
+        <f>SUBTOTAL(3,F126:F127)</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128">
-        <v>12</v>
-      </c>
-      <c r="H128">
-        <f>G128+64</f>
-        <v>76</v>
       </c>
     </row>
     <row r="129" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -3824,29 +3820,29 @@
         <v>12</v>
       </c>
       <c r="H129">
-        <f>G129</f>
-        <v>12</v>
+        <f>G129+64</f>
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E130" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F130">
-        <f>SUBTOTAL(3,F128:F129)</f>
+      <c r="F130" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130">
+        <v>12</v>
+      </c>
+      <c r="H130">
+        <f>G130</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="F131">
+        <f>SUBTOTAL(3,F129:F130)</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="F131" t="s">
-        <v>23</v>
-      </c>
-      <c r="G131">
-        <v>10</v>
-      </c>
-      <c r="H131">
-        <f>G131+64</f>
-        <v>74</v>
       </c>
     </row>
     <row r="132" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -3857,29 +3853,29 @@
         <v>10</v>
       </c>
       <c r="H132">
-        <f>G132</f>
-        <v>10</v>
+        <f>G132+64</f>
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E133" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F133">
-        <f>SUBTOTAL(3,F131:F132)</f>
+      <c r="F133" t="s">
+        <v>23</v>
+      </c>
+      <c r="G133">
+        <v>10</v>
+      </c>
+      <c r="H133">
+        <f>G133</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="F134">
+        <f>SUBTOTAL(3,F132:F133)</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="F134" t="s">
-        <v>25</v>
-      </c>
-      <c r="G134">
-        <v>14</v>
-      </c>
-      <c r="H134">
-        <f>G134+64</f>
-        <v>78</v>
       </c>
     </row>
     <row r="135" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -3890,29 +3886,29 @@
         <v>14</v>
       </c>
       <c r="H135">
-        <f>G135</f>
-        <v>14</v>
+        <f>G135+64</f>
+        <v>78</v>
       </c>
     </row>
     <row r="136" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E136" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F136">
-        <f>SUBTOTAL(3,F134:F135)</f>
+      <c r="F136" t="s">
+        <v>25</v>
+      </c>
+      <c r="G136">
+        <v>14</v>
+      </c>
+      <c r="H136">
+        <f>G136</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="F137">
+        <f>SUBTOTAL(3,F135:F136)</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="F137" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137">
-        <v>8</v>
-      </c>
-      <c r="H137">
-        <f>G137+64</f>
-        <v>72</v>
       </c>
     </row>
     <row r="138" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -3923,29 +3919,29 @@
         <v>8</v>
       </c>
       <c r="H138">
-        <f>G138</f>
-        <v>8</v>
+        <f>G138+64</f>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E139" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F139">
-        <f>SUBTOTAL(3,F137:F138)</f>
+      <c r="F139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139">
+        <v>8</v>
+      </c>
+      <c r="H139">
+        <f>G139</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="F140">
+        <f>SUBTOTAL(3,F138:F139)</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140">
-        <v>41</v>
-      </c>
-      <c r="H140">
-        <f>G140+64</f>
-        <v>105</v>
       </c>
     </row>
     <row r="141" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -3956,29 +3952,29 @@
         <v>41</v>
       </c>
       <c r="H141">
-        <f>G141</f>
-        <v>41</v>
+        <f>G141+64</f>
+        <v>105</v>
       </c>
     </row>
     <row r="142" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E142" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F142">
-        <f>SUBTOTAL(3,F140:F141)</f>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142">
+        <v>41</v>
+      </c>
+      <c r="H142">
+        <f>G142</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="143" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="F143">
+        <f>SUBTOTAL(3,F141:F142)</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="F143" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143">
-        <v>39</v>
-      </c>
-      <c r="H143">
-        <f>G143+64</f>
-        <v>103</v>
       </c>
     </row>
     <row r="144" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -3989,29 +3985,29 @@
         <v>39</v>
       </c>
       <c r="H144">
-        <f>G144</f>
-        <v>39</v>
+        <f>G144+64</f>
+        <v>103</v>
       </c>
     </row>
     <row r="145" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E145" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F145">
-        <f>SUBTOTAL(3,F143:F144)</f>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145">
+        <v>39</v>
+      </c>
+      <c r="H145">
+        <f>G145</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="F146">
+        <f>SUBTOTAL(3,F144:F145)</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="F146" t="s">
-        <v>31</v>
-      </c>
-      <c r="G146">
-        <v>28</v>
-      </c>
-      <c r="H146">
-        <f>G146+64</f>
-        <v>92</v>
       </c>
     </row>
     <row r="147" spans="5:8" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -4022,20 +4018,31 @@
         <v>28</v>
       </c>
       <c r="H147">
-        <f>G147</f>
-        <v>28</v>
+        <f>G147+64</f>
+        <v>92</v>
       </c>
     </row>
     <row r="148" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E148" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F148">
-        <f>SUBTOTAL(3,F146:F147)</f>
+      <c r="F148" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148">
+        <v>28</v>
+      </c>
+      <c r="H148">
+        <f>G148</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F149">
+        <f>SUBTOTAL(3,F147:F148)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="150" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="151" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
@@ -4044,22 +4051,25 @@
       <c r="E154" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F154">
-        <f>SUBTOTAL(3,F5:F153)</f>
-        <v>103</v>
+    </row>
+    <row r="155" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F155">
+        <f>SUBTOTAL(3,F5:F154)</f>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F4:H152">
-    <sortCondition descending="1" ref="F4:F152"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F4:H153">
+    <sortCondition descending="1" ref="F4:F153"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G4:G148">
+  <conditionalFormatting sqref="G4:G149">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>52</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5280,7 +5290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8280ECA-B15C-411A-B9BE-323737725C86}">
   <dimension ref="C3:AD252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="O133" sqref="O133"/>
     </sheetView>
   </sheetViews>
